--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/SSEP-24/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/SSEP-24/Intro-Prog/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF24DCC5-5246-0D42-B717-E54D7ADF9FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171A424E-788A-A248-A805-9D0B36F1CC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45520" yWindow="4500" windowWidth="26760" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -134,9 +134,6 @@
     <t>Ch. 4</t>
   </si>
   <si>
-    <t>Input, Strings &amp; Numbers</t>
-  </si>
-  <si>
     <t xml:space="preserve">Encryption &amp; Decryption </t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>App Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad Libs </t>
   </si>
 </sst>
 </file>
@@ -332,20 +332,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,7 +565,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="H6" sqref="H6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -598,13 +598,13 @@
         <v>2</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="23">
+      <c r="C2" s="24">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -620,7 +620,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -639,12 +639,12 @@
       <c r="G3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="22"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="23">
+      <c r="C4" s="24">
         <v>2</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -660,7 +660,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -679,12 +679,12 @@
       <c r="G5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="22"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="23">
+      <c r="C6" s="24">
         <v>3</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -700,13 +700,13 @@
         <v>27</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="24"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="10" t="s">
         <v>7</v>
       </c>
@@ -719,12 +719,12 @@
       <c r="G7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="26"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="23">
+      <c r="C8" s="24">
         <v>4</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -740,13 +740,13 @@
         <v>30</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="24"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="10" t="s">
         <v>7</v>
       </c>
@@ -759,12 +759,12 @@
       <c r="G9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="22"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="23">
+      <c r="C10" s="24">
         <v>5</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -780,13 +780,13 @@
         <v>29</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="24"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="10" t="s">
         <v>7</v>
       </c>
@@ -799,12 +799,12 @@
       <c r="G11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="26"/>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="23">
+      <c r="C12" s="24">
         <v>6</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -818,13 +818,13 @@
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="24"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="10" t="s">
         <v>7</v>
       </c>
@@ -835,12 +835,12 @@
         <v>23</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="22"/>
+      <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="23">
+      <c r="C14" s="24">
         <v>7</v>
       </c>
       <c r="D14" s="9" t="s">
@@ -854,13 +854,13 @@
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="24"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="10" t="s">
         <v>7</v>
       </c>
@@ -871,12 +871,12 @@
         <v>25</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="22"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="23">
+      <c r="C16" s="24">
         <v>8</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -890,13 +890,13 @@
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="24"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="10" t="s">
         <v>7</v>
       </c>
@@ -907,12 +907,12 @@
         <v>26</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="22"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="23">
+      <c r="C18" s="24">
         <v>9</v>
       </c>
       <c r="D18" s="9" t="s">
@@ -926,13 +926,13 @@
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="24"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="10" t="s">
         <v>7</v>
       </c>
@@ -943,12 +943,12 @@
         <v>26</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="22"/>
+      <c r="H19" s="23"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="23">
+      <c r="C20" s="24">
         <v>10</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -962,13 +962,13 @@
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="24"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="10" t="s">
         <v>7</v>
       </c>
@@ -979,30 +979,30 @@
         <v>8</v>
       </c>
       <c r="G21" s="6"/>
-      <c r="H21" s="22"/>
+      <c r="H21" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H10:H11"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Smith/SSEP-24/Intro-Prog/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171A424E-788A-A248-A805-9D0B36F1CC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F710C93-DB18-3B4C-BD12-229DDC10FF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -329,23 +329,23 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,7 +565,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H7"/>
+      <selection activeCell="H4" sqref="H4:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -604,7 +604,7 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="24">
+      <c r="C2" s="21">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -619,7 +619,7 @@
       <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="23" t="s">
         <v>38</v>
       </c>
     </row>
@@ -639,12 +639,12 @@
       <c r="G3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="23"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="24">
+      <c r="C4" s="21">
         <v>2</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -659,7 +659,7 @@
       <c r="G4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="23" t="s">
         <v>41</v>
       </c>
     </row>
@@ -679,12 +679,12 @@
       <c r="G5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="23"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="24">
+      <c r="C6" s="21">
         <v>3</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -699,14 +699,14 @@
       <c r="G6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="23" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="26"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="10" t="s">
         <v>7</v>
       </c>
@@ -719,12 +719,12 @@
       <c r="G7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="22"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="24">
+      <c r="C8" s="21">
         <v>4</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -739,14 +739,14 @@
       <c r="G8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="26"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="10" t="s">
         <v>7</v>
       </c>
@@ -759,12 +759,12 @@
       <c r="G9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="23"/>
+      <c r="H9" s="24"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="24">
+      <c r="C10" s="21">
         <v>5</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -779,14 +779,14 @@
       <c r="G10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="26"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="10" t="s">
         <v>7</v>
       </c>
@@ -799,12 +799,12 @@
       <c r="G11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="22"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="24">
+      <c r="C12" s="21">
         <v>6</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -817,14 +817,14 @@
         <v>22</v>
       </c>
       <c r="G12" s="9"/>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="26"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="10" t="s">
         <v>7</v>
       </c>
@@ -835,12 +835,12 @@
         <v>23</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="23"/>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="24">
+      <c r="C14" s="21">
         <v>7</v>
       </c>
       <c r="D14" s="9" t="s">
@@ -853,14 +853,14 @@
         <v>24</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="26"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="10" t="s">
         <v>7</v>
       </c>
@@ -871,12 +871,12 @@
         <v>25</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="23"/>
+      <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="24">
+      <c r="C16" s="21">
         <v>8</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -889,14 +889,14 @@
         <v>26</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="23" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="26"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="10" t="s">
         <v>7</v>
       </c>
@@ -907,12 +907,12 @@
         <v>26</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="23"/>
+      <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="24">
+      <c r="C18" s="21">
         <v>9</v>
       </c>
       <c r="D18" s="9" t="s">
@@ -925,14 +925,14 @@
         <v>26</v>
       </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="23" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="26"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="10" t="s">
         <v>7</v>
       </c>
@@ -943,12 +943,12 @@
         <v>26</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="23"/>
+      <c r="H19" s="24"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="24">
+      <c r="C20" s="21">
         <v>10</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -961,14 +961,14 @@
         <v>10</v>
       </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="23" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="26"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="10" t="s">
         <v>7</v>
       </c>
@@ -979,10 +979,21 @@
         <v>8</v>
       </c>
       <c r="G21" s="6"/>
-      <c r="H21" s="23"/>
+      <c r="H21" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="H18:H19"/>
@@ -992,17 +1003,6 @@
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
